--- a/biology/Médecine/John_Macadam/John_Macadam.xlsx
+++ b/biology/Médecine/John_Macadam/John_Macadam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Macadam est un chimiste, un médecin et un enseignant australien d’origine écossaise, né en mai 1827 à Northbank, près de Glasgow et mort le 2 septembre 1865 durant un voyage en mer entre l'Australie et la Nouvelle-Zélande.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie la chimie à l’université Andersonian et à l’université d’Édimbourg avant de se tourner vers la médecine à Glasgow. En 1855, il se rend à Melbourne, où il devient le premier conférencier à enseigner à l’école de médecine de l’université de la ville. Il commence ses conférences de chimie le 3 mars 1862. Il meurt quelques années plus tard en 1865, des suites d'une pleurésie[1],[2]. Sa tombe se trouve dans le cimetière général de Melbourne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie la chimie à l’université Andersonian et à l’université d’Édimbourg avant de se tourner vers la médecine à Glasgow. En 1855, il se rend à Melbourne, où il devient le premier conférencier à enseigner à l’école de médecine de l’université de la ville. Il commence ses conférences de chimie le 3 mars 1862. Il meurt quelques années plus tard en 1865, des suites d'une pleurésie,. Sa tombe se trouve dans le cimetière général de Melbourne.
 Son disciple Ferdinand von Mueller (1825-1896) nomme le genre Macadamia en son honneur. La noix de l'une des espèces, le noyer du Queensland, est la célèbre noix de macadamia.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « John Macadam » (voir la liste des auteurs).</t>
         </is>
